--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-doseperperiod.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-doseperperiod.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="182">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -325,32 +325,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>strengthType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_IngredientStrength_StrengthType}
-</t>
-  </si>
-  <si>
-    <t>力価区分</t>
-  </si>
-  <si>
-    <t>投与量が製剤単位か成分単位かを格納する</t>
-  </si>
-  <si>
-    <t>rateComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_DosageRate_RateComment}
-</t>
-  </si>
-  <si>
-    <t>投与速度コメント</t>
-  </si>
-  <si>
-    <t>投与速度コメントを格納するための拡張</t>
-  </si>
-  <si>
     <t>Ratio.numerator</t>
   </si>
   <si>
@@ -575,7 +549,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>http://unitsofmeasure.org</t>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
   </si>
   <si>
     <t>Ratio.denominator.system</t>
@@ -906,7 +880,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -916,7 +890,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.75" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1382,11 +1356,9 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>101</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>74</v>
       </c>
@@ -1413,9 +1385,11 @@
         <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>74</v>
@@ -1464,34 +1438,32 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>74</v>
       </c>
@@ -1500,7 +1472,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -1512,13 +1484,13 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1569,25 +1541,25 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -1596,14 +1568,14 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -1615,16 +1587,16 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1662,42 +1634,42 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AC7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1705,7 +1677,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>84</v>
@@ -1717,19 +1689,23 @@
         <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O8" t="s" s="2">
         <v>74</v>
       </c>
@@ -1777,7 +1753,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -1789,56 +1765,60 @@
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="O9" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="Q9" t="s" s="2">
         <v>74</v>
       </c>
@@ -1858,54 +1838,54 @@
         <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1913,7 +1893,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>84</v>
@@ -1925,22 +1905,22 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -1989,7 +1969,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2001,18 +1981,18 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2029,32 +2009,30 @@
         <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P11" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2074,13 +2052,11 @@
         <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>74</v>
@@ -2098,30 +2074,30 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2129,7 +2105,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>84</v>
@@ -2141,22 +2117,22 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -2181,13 +2157,11 @@
         <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>74</v>
@@ -2205,7 +2179,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2217,18 +2191,18 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2248,23 +2222,19 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2288,11 +2258,13 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X13" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y13" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
@@ -2310,7 +2282,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2319,21 +2291,21 @@
         <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2341,7 +2313,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>84</v>
@@ -2353,23 +2325,19 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>74</v>
       </c>
@@ -2393,11 +2361,13 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -2415,7 +2385,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2427,29 +2397,29 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -2458,18 +2428,20 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2506,42 +2478,42 @@
         <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2561,19 +2533,23 @@
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
@@ -2621,7 +2597,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2633,56 +2609,58 @@
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="Q17" t="s" s="2">
         <v>74</v>
       </c>
@@ -2702,54 +2680,54 @@
         <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2769,22 +2747,20 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -2809,13 +2785,11 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -2833,7 +2807,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2845,18 +2819,18 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2873,30 +2847,28 @@
         <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P19" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
         <v>74</v>
       </c>
@@ -2916,13 +2888,11 @@
         <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>74</v>
@@ -2940,30 +2910,30 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2983,20 +2953,22 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="N20" t="s" s="2">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3021,11 +2993,11 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
@@ -3043,7 +3015,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3055,223 +3027,13 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH21" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-doseperperiod.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-doseperperiod.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="182">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-03-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -249,7 +249,7 @@
     <t>単位時間内での薬剤の容量（体積）</t>
   </si>
   <si>
-    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -549,19 +549,19 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
+    <t>Ratio.denominator.system</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。固定値。</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
-  </si>
-  <si>
-    <t>Ratio.denominator.system</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。固定値。</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>Ratio.denominator.code</t>
@@ -2785,11 +2785,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -2830,7 +2832,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2856,14 +2858,14 @@
         <v>140</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -2892,7 +2894,7 @@
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>74</v>
@@ -2997,7 +2999,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-doseperperiod.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-doseperperiod.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはRatio DataTypeに対して、日本の薬剤単位を割り当てた派生型である。単位時間内での薬剤の容量（体積）を記述する</t>
+    <t>このプロファイルはRatio DataTypeに対して、日本の薬剤単位を割り当てた派生型である。単位時間内での薬剤の容量を記述する</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,7 +246,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>単位時間内での薬剤の容量（体積）</t>
+    <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
     <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
@@ -332,7 +332,7 @@
 </t>
   </si>
   <si>
-    <t>投与量（体積）</t>
+    <t>投与量</t>
   </si>
   <si>
     <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
@@ -426,10 +426,10 @@
     <t>Ratio.numerator.unit</t>
   </si>
   <si>
-    <t>投与量（体積）の単位</t>
-  </si>
-  <si>
-    <t>投与量（体積）の単位。</t>
+    <t>投与量の単位</t>
+  </si>
+  <si>
+    <t>投与量の単位。</t>
   </si>
   <si>
     <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
